--- a/HI_LABS/3.week/mybooks.xlsx
+++ b/HI_LABS/3.week/mybooks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W10\Documents\GitHub\IronFederica\HI_LABS\3.week\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78350500-95F2-417A-BBE2-59B442103565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1706D963-A7B8-420A-9E52-DCE43187ADDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{208E5675-0E97-42B6-9AE9-FF6ACE4D73C5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>book_title</t>
   </si>
@@ -96,12 +96,147 @@
   <si>
     <t>Australia</t>
   </si>
+  <si>
+    <t>membership_id</t>
+  </si>
+  <si>
+    <t>check_in_date</t>
+  </si>
+  <si>
+    <t>check_in_time</t>
+  </si>
+  <si>
+    <t>check_out_time</t>
+  </si>
+  <si>
+    <t>X0643</t>
+  </si>
+  <si>
+    <t>UK1F2</t>
+  </si>
+  <si>
+    <t>XTE42</t>
+  </si>
+  <si>
+    <t>1AE2H</t>
+  </si>
+  <si>
+    <t>6LSTG</t>
+  </si>
+  <si>
+    <t>7MWHJ</t>
+  </si>
+  <si>
+    <t>GE5Q8</t>
+  </si>
+  <si>
+    <t>48Z7A</t>
+  </si>
+  <si>
+    <t>48Z55</t>
+  </si>
+  <si>
+    <t>Shondra Ledlow</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>Zackary Cabotage</t>
+  </si>
+  <si>
+    <t>Sarita Bartosh</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>Adriane Pelligra</t>
+  </si>
+  <si>
+    <t>Burton Grippe</t>
+  </si>
+  <si>
+    <t>Blossom Crescenzo</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>Carmen Dimick</t>
+  </si>
+  <si>
+    <t>Joe Germuska</t>
+  </si>
+  <si>
+    <t>Jeremy Bowers</t>
+  </si>
+  <si>
+    <t>Annabel Miller</t>
+  </si>
+  <si>
+    <t>H42</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>eye_color</t>
+  </si>
+  <si>
+    <t>hair_color</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>plate_number</t>
+  </si>
+  <si>
+    <t>car_make</t>
+  </si>
+  <si>
+    <t>car_model</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Model S</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>08CM64</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>917UU3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,16 +250,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF484848"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF484848"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,12 +291,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BD30FC-1B3D-4F07-9D7A-CD47F1E40F7C}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,7 +650,7 @@
     <col min="1" max="3" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +660,20 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -484,8 +683,47 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="G2" s="3">
+        <v>957</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1164</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3">
+        <v>15247</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="3">
+        <v>20170521</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>957</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -495,8 +733,47 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="G3" s="3">
+        <v>344</v>
+      </c>
+      <c r="H3" s="3">
+        <v>518</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3">
+        <v>28073</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="3">
+        <v>20170818</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>344</v>
+      </c>
+      <c r="R3" s="3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -506,8 +783,47 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="G4" s="3">
+        <v>486</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1124</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3">
+        <v>55662</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="3">
+        <v>20170524</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>486</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -517,8 +833,47 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="G5" s="3">
+        <v>461</v>
+      </c>
+      <c r="H5" s="3">
+        <v>944</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10815</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="3">
+        <v>20170816</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>461</v>
+      </c>
+      <c r="R5" s="3">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -527,6 +882,369 @@
       </c>
       <c r="C6" t="s">
         <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="G6" s="3">
+        <v>399</v>
+      </c>
+      <c r="H6" s="3">
+        <v>515</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="3">
+        <v>83186</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="3">
+        <v>20170214</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>399</v>
+      </c>
+      <c r="R6" s="3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="G7" s="3">
+        <v>273</v>
+      </c>
+      <c r="H7" s="3">
+        <v>885</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="3">
+        <v>31523</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="3">
+        <v>20180309</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>273</v>
+      </c>
+      <c r="R7" s="3">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="G8" s="3">
+        <v>367</v>
+      </c>
+      <c r="H8" s="3">
+        <v>959</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="3">
+        <v>92736</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="3">
+        <v>20170618</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>367</v>
+      </c>
+      <c r="R8" s="3">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1730</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="5">
+        <v>28819</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="5">
+        <v>20160305</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="5">
+        <v>20180109</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1600</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1530</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="5">
+        <v>67318</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="5">
+        <v>20160101</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="5">
+        <v>20180109</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1530</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="3">
+        <v>90081</v>
+      </c>
+      <c r="F11" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J11" s="3">
+        <v>90081</v>
+      </c>
+      <c r="K11" s="3">
+        <v>16371</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="3">
+        <v>20160208</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="3">
+        <v>90081</v>
+      </c>
+      <c r="P11" s="3">
+        <v>20180109</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="3">
+        <v>202298</v>
+      </c>
+      <c r="F15" s="3">
+        <v>68</v>
+      </c>
+      <c r="G15" s="3">
+        <v>66</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="3">
+        <v>500123</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="3">
+        <v>291182</v>
+      </c>
+      <c r="F16" s="3">
+        <v>65</v>
+      </c>
+      <c r="G16" s="3">
+        <v>66</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="3">
+        <v>918773</v>
+      </c>
+      <c r="F17" s="3">
+        <v>48</v>
+      </c>
+      <c r="G17" s="3">
+        <v>65</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
